--- a/cv_12/data/dvora135_EMB-cv_12.xlsx
+++ b/cv_12/data/dvora135_EMB-cv_12.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvorakj/Disk Google/Sdílené složky/Škola_shared/3_semestr/EMB/Cv/Protokoly/cv_12/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65FFD24B-9E92-FF42-B2AF-61BF79F80B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37E638-19AE-C543-A136-E4D70E58F86E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="5040" windowWidth="28040" windowHeight="17360" xr2:uid="{919737FE-58E3-124C-9268-01DFD73B7E45}"/>
+    <workbookView xWindow="4720" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{919737FE-58E3-124C-9268-01DFD73B7E45}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="14">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -61,13 +61,28 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\\\hline</t>
+  </si>
+  <si>
+    <t>$I$ (V)</t>
+  </si>
+  <si>
+    <t>$U$ (A)</t>
+  </si>
+  <si>
+    <t>$R$ (mΩ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,16 +91,31 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,14 +123,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,18 +463,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA434EE-A87F-7D4F-BB81-7951C6059B48}">
-  <dimension ref="A7:B26"/>
+  <dimension ref="A7:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -432,63 +489,223 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1</v>
       </c>
-      <c r="B9">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>(B8+B9)/2</f>
+        <f>(T12+T13)/2</f>
         <v>11.5</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12">
+        <v>11.3</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12">
+        <v>11.3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13">
+        <v>11.7</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13">
+        <v>11.7</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.876</v>
       </c>
       <c r="B15">
         <v>10.082000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.89600000000000002</v>
       </c>
       <c r="B16">
         <v>10.250999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>B15/A15</f>
         <v>11.509132420091325</v>
@@ -496,29 +713,200 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>B16/A16</f>
+        <v>11.440848214285714</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <f>A18/2+A19/2</f>
+        <v>11.474990317188519</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24">
         <v>-5.99</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>-((B24)/(A24)*10000)</f>
         <v>11980</v>
@@ -526,8 +914,262 @@
       <c r="B26" t="s">
         <v>8</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W11" r:id="rId1" xr:uid="{2F83CBDC-2591-D744-8B07-9AA9763FB3B1}"/>
+    <hyperlink ref="W12:W13" r:id="rId2" display="\\\hline" xr:uid="{563D60B5-55B1-6442-9FDE-8F3C6C28C0FC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>